--- a/nr-update-cs/ig/StructureDefinition-as-person.xlsx
+++ b/nr-update-cs/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:35:53+00:00</t>
+    <t>2025-08-11T14:02:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
